--- a/Code/Results/Cases/Case_5_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_254/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.04690559768407</v>
+        <v>14.8196770910878</v>
       </c>
       <c r="C2">
-        <v>7.16837778208894</v>
+        <v>8.701991038463163</v>
       </c>
       <c r="D2">
-        <v>5.174032448198866</v>
+        <v>7.740546356698469</v>
       </c>
       <c r="E2">
-        <v>7.95246473224</v>
+        <v>13.1147000458921</v>
       </c>
       <c r="F2">
-        <v>26.65109107367779</v>
+        <v>39.80291378266475</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.126929669296981</v>
+        <v>10.43965123685456</v>
       </c>
       <c r="K2">
-        <v>11.03427256079179</v>
+        <v>10.97304233228034</v>
       </c>
       <c r="L2">
-        <v>6.511180057679599</v>
+        <v>10.64414207485471</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.09919880818197</v>
+        <v>30.85463545647013</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.20158251673383</v>
+        <v>14.62931646709673</v>
       </c>
       <c r="C3">
-        <v>7.136359099891555</v>
+        <v>8.691439001280019</v>
       </c>
       <c r="D3">
-        <v>4.996333906392606</v>
+        <v>7.723530605890372</v>
       </c>
       <c r="E3">
-        <v>7.908707002465691</v>
+        <v>13.13361988409823</v>
       </c>
       <c r="F3">
-        <v>26.57036580576427</v>
+        <v>39.89908891827489</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.175389280396336</v>
+        <v>10.46108441887647</v>
       </c>
       <c r="K3">
-        <v>10.37210187029594</v>
+        <v>10.83240246286649</v>
       </c>
       <c r="L3">
-        <v>6.382686048446172</v>
+        <v>10.64266630505112</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.17529708791198</v>
+        <v>30.94776686950024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65822664461866</v>
+        <v>14.513768673553</v>
       </c>
       <c r="C4">
-        <v>7.117196844961746</v>
+        <v>8.685101927765675</v>
       </c>
       <c r="D4">
-        <v>4.885744648768591</v>
+        <v>7.714087536435531</v>
       </c>
       <c r="E4">
-        <v>7.885052341134763</v>
+        <v>13.14684489049918</v>
       </c>
       <c r="F4">
-        <v>26.53988286018824</v>
+        <v>39.96572229615035</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.206630368830004</v>
+        <v>10.47505103561553</v>
       </c>
       <c r="K4">
-        <v>9.943491640772747</v>
+        <v>10.746781596787</v>
       </c>
       <c r="L4">
-        <v>6.30480633131673</v>
+        <v>10.64300740739907</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.23572024637377</v>
+        <v>31.01030512843756</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.43082942559668</v>
+        <v>14.46707100463819</v>
       </c>
       <c r="C5">
-        <v>7.109512435214922</v>
+        <v>8.682555940822406</v>
       </c>
       <c r="D5">
-        <v>4.840372046824355</v>
+        <v>7.710494774059507</v>
       </c>
       <c r="E5">
-        <v>7.876214058164495</v>
+        <v>13.15263905169115</v>
       </c>
       <c r="F5">
-        <v>26.53212200694022</v>
+        <v>39.99478004119068</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.21973474720579</v>
+        <v>10.48094584146439</v>
       </c>
       <c r="K5">
-        <v>9.763314464533931</v>
+        <v>10.71211283334718</v>
       </c>
       <c r="L5">
-        <v>6.273358926215794</v>
+        <v>10.64346122514592</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.2636647587148</v>
+        <v>31.03713545824397</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.39271426287837</v>
+        <v>14.45934193830342</v>
       </c>
       <c r="C6">
-        <v>7.108243937867711</v>
+        <v>8.682135402780364</v>
       </c>
       <c r="D6">
-        <v>4.832821481124949</v>
+        <v>7.709913698467336</v>
       </c>
       <c r="E6">
-        <v>7.874794642396886</v>
+        <v>13.15362563393744</v>
       </c>
       <c r="F6">
-        <v>26.53111074706793</v>
+        <v>39.99971998852507</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.221933259999068</v>
+        <v>10.48193696224501</v>
       </c>
       <c r="K6">
-        <v>9.733064100996538</v>
+        <v>10.7063706581296</v>
       </c>
       <c r="L6">
-        <v>6.268155563371194</v>
+        <v>10.64355562838779</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.2685019978646</v>
+        <v>31.04167184409202</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.65518386608953</v>
+        <v>14.51313724720199</v>
       </c>
       <c r="C7">
-        <v>7.117092707615686</v>
+        <v>8.685067443257244</v>
       </c>
       <c r="D7">
-        <v>4.885133888036409</v>
+        <v>7.714038045733394</v>
       </c>
       <c r="E7">
-        <v>7.884929910556027</v>
+        <v>13.14692139268847</v>
       </c>
       <c r="F7">
-        <v>26.53975950624409</v>
+        <v>39.96610647267243</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.206805587736249</v>
+        <v>10.47512971125002</v>
       </c>
       <c r="K7">
-        <v>9.941083994973743</v>
+        <v>10.74631309077753</v>
       </c>
       <c r="L7">
-        <v>6.304381004967759</v>
+        <v>10.64301225155665</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.23608382726532</v>
+        <v>31.01066152538208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.76056033414432</v>
+        <v>14.75379599158112</v>
       </c>
       <c r="C8">
-        <v>7.157234049549737</v>
+        <v>8.698323681061934</v>
       </c>
       <c r="D8">
-        <v>5.113107336268978</v>
+        <v>7.73447249540577</v>
       </c>
       <c r="E8">
-        <v>7.936706520769755</v>
+        <v>13.12089013287786</v>
       </c>
       <c r="F8">
-        <v>26.61921521092202</v>
+        <v>39.83450011184441</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.143329661634414</v>
+        <v>10.44687428678329</v>
       </c>
       <c r="K8">
-        <v>10.81054095463999</v>
+        <v>10.9244206438578</v>
       </c>
       <c r="L8">
-        <v>6.466684553076298</v>
+        <v>10.64337510359837</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.12251949205608</v>
+        <v>30.88563503520292</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73070836026035</v>
+        <v>15.23395264602096</v>
       </c>
       <c r="C9">
-        <v>7.239940551576388</v>
+        <v>8.725413719841216</v>
       </c>
       <c r="D9">
-        <v>5.545804723009022</v>
+        <v>7.782389371023143</v>
       </c>
       <c r="E9">
-        <v>8.063990481296281</v>
+        <v>13.08258103744324</v>
       </c>
       <c r="F9">
-        <v>26.93233725815607</v>
+        <v>39.63667211046047</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.030677113619415</v>
+        <v>10.39784338144481</v>
       </c>
       <c r="K9">
-        <v>12.34019827309293</v>
+        <v>11.27781867224489</v>
       </c>
       <c r="L9">
-        <v>6.791571593632793</v>
+        <v>10.65392819927284</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.01415986824813</v>
+        <v>30.68299857646537</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.08830474333092</v>
+        <v>15.58858143720893</v>
       </c>
       <c r="C10">
-        <v>7.303216807475899</v>
+        <v>8.74594301090176</v>
       </c>
       <c r="D10">
-        <v>5.851900461339467</v>
+        <v>7.822197323066228</v>
       </c>
       <c r="E10">
-        <v>8.173507372021497</v>
+        <v>13.06217048981767</v>
       </c>
       <c r="F10">
-        <v>27.26598734120618</v>
+        <v>39.52817929400722</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.95516896535178</v>
+        <v>10.36567830589268</v>
       </c>
       <c r="K10">
-        <v>13.35718942950632</v>
+        <v>11.53773602245055</v>
       </c>
       <c r="L10">
-        <v>7.032428959425982</v>
+        <v>10.6676042628551</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.01219124261928</v>
+        <v>30.56012022536088</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.7045430844677</v>
+        <v>15.74965573412391</v>
       </c>
       <c r="C11">
-        <v>7.332570369814283</v>
+        <v>8.75540948033442</v>
       </c>
       <c r="D11">
-        <v>5.988062932549345</v>
+        <v>7.841265088908213</v>
       </c>
       <c r="E11">
-        <v>8.226853858492158</v>
+        <v>13.05455763580059</v>
       </c>
       <c r="F11">
-        <v>27.4418039430445</v>
+        <v>39.48684563244928</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.922410069411402</v>
+        <v>10.35187691088274</v>
       </c>
       <c r="K11">
-        <v>13.79681758331706</v>
+        <v>11.65557283967936</v>
       </c>
       <c r="L11">
-        <v>7.142106017302193</v>
+        <v>10.67509371608225</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.02991370393566</v>
+        <v>30.50987806890969</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.93308539497491</v>
+        <v>15.81056100720925</v>
       </c>
       <c r="C12">
-        <v>7.343769640091367</v>
+        <v>8.759011739754985</v>
       </c>
       <c r="D12">
-        <v>6.039144896490375</v>
+        <v>7.848619669007608</v>
       </c>
       <c r="E12">
-        <v>8.24756484407593</v>
+        <v>13.05191459984163</v>
       </c>
       <c r="F12">
-        <v>27.51195520735762</v>
+        <v>39.4723481451374</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.910235612247823</v>
+        <v>10.34676964745901</v>
       </c>
       <c r="K12">
-        <v>13.96000641495594</v>
+        <v>11.70009901126914</v>
       </c>
       <c r="L12">
-        <v>7.183625772588602</v>
+        <v>10.67811041067323</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.03944983551554</v>
+        <v>30.4916669984516</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88407788295429</v>
+        <v>15.79744882310344</v>
       </c>
       <c r="C13">
-        <v>7.341353919761001</v>
+        <v>8.758235163220933</v>
       </c>
       <c r="D13">
-        <v>6.028165345717835</v>
+        <v>7.847029830575998</v>
       </c>
       <c r="E13">
-        <v>8.243081649263427</v>
+        <v>13.0524731711102</v>
       </c>
       <c r="F13">
-        <v>27.49668614687857</v>
+        <v>39.47541906554273</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.912847307273874</v>
+        <v>10.34786430101282</v>
       </c>
       <c r="K13">
-        <v>13.92500668445891</v>
+        <v>11.69051437676893</v>
       </c>
       <c r="L13">
-        <v>7.174684735366685</v>
+        <v>10.67745270820898</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.03726803845876</v>
+        <v>30.49555283219104</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.7234415392384</v>
+        <v>15.75466855903182</v>
       </c>
       <c r="C14">
-        <v>7.33349005067571</v>
+        <v>8.755705494209323</v>
       </c>
       <c r="D14">
-        <v>5.992275282695533</v>
+        <v>7.841867491098363</v>
       </c>
       <c r="E14">
-        <v>8.228547531997167</v>
+        <v>13.05433538981734</v>
       </c>
       <c r="F14">
-        <v>27.44750306403535</v>
+        <v>39.48562976733918</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.921403834914858</v>
+        <v>10.35145435020541</v>
       </c>
       <c r="K14">
-        <v>13.81030900893654</v>
+        <v>11.65923817634425</v>
       </c>
       <c r="L14">
-        <v>7.14552227836395</v>
+        <v>10.67533829224253</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.0306407751344</v>
+        <v>30.50836350163537</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.62442197139063</v>
+        <v>15.72845109311726</v>
       </c>
       <c r="C15">
-        <v>7.328684167967273</v>
+        <v>8.754158254684805</v>
       </c>
       <c r="D15">
-        <v>5.970228104999889</v>
+        <v>7.838722746782634</v>
       </c>
       <c r="E15">
-        <v>8.2197114332947</v>
+        <v>13.05550725991862</v>
       </c>
       <c r="F15">
-        <v>27.41784573787121</v>
+        <v>39.49203452487178</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.926675053695187</v>
+        <v>10.35366884715005</v>
       </c>
       <c r="K15">
-        <v>13.73962573964697</v>
+        <v>11.64006696670724</v>
       </c>
       <c r="L15">
-        <v>7.127656993754957</v>
+        <v>10.67406661726975</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.02695371057453</v>
+        <v>30.51631651994669</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.04735535325662</v>
+        <v>15.5780451788362</v>
       </c>
       <c r="C16">
-        <v>7.301310086324793</v>
+        <v>8.745326851171599</v>
       </c>
       <c r="D16">
-        <v>5.84293664847323</v>
+        <v>7.820970169095691</v>
       </c>
       <c r="E16">
-        <v>8.170092259971474</v>
+        <v>13.06270159857967</v>
       </c>
       <c r="F16">
-        <v>27.25499110829227</v>
+        <v>39.53104205833136</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.957341994193809</v>
+        <v>10.36659693828429</v>
       </c>
       <c r="K16">
-        <v>13.32799729107555</v>
+        <v>11.5300237336958</v>
       </c>
       <c r="L16">
-        <v>7.025261038161232</v>
+        <v>10.66714017980735</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.01142025967926</v>
+        <v>30.56351758589214</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.68470822743158</v>
+        <v>15.48567333709893</v>
       </c>
       <c r="C17">
-        <v>7.284663935720924</v>
+        <v>8.739941159232622</v>
       </c>
       <c r="D17">
-        <v>5.764030258573799</v>
+        <v>7.810322442130212</v>
       </c>
       <c r="E17">
-        <v>8.140557835960733</v>
+        <v>13.06754288780133</v>
       </c>
       <c r="F17">
-        <v>27.16132638369826</v>
+        <v>39.55702717098796</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.976563734157862</v>
+        <v>10.37474035316427</v>
       </c>
       <c r="K17">
-        <v>13.06959622591667</v>
+        <v>11.46238543053433</v>
       </c>
       <c r="L17">
-        <v>6.962451655802496</v>
+        <v>10.66321461743771</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.00676391521246</v>
+        <v>30.59392340894292</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.48235522335838</v>
+        <v>15.43252331576831</v>
       </c>
       <c r="C18">
-        <v>7.275142922914292</v>
+        <v>8.736855511680414</v>
       </c>
       <c r="D18">
-        <v>5.718357123564735</v>
+        <v>7.804288650899793</v>
       </c>
       <c r="E18">
-        <v>8.123902239246553</v>
+        <v>13.07048488790463</v>
       </c>
       <c r="F18">
-        <v>27.10970879775662</v>
+        <v>39.57272796320003</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.987769104679663</v>
+        <v>10.37950244055532</v>
       </c>
       <c r="K18">
-        <v>12.91880378053415</v>
+        <v>11.42344617205864</v>
       </c>
       <c r="L18">
-        <v>6.926337256388998</v>
+        <v>10.6610762125933</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.00582913463452</v>
+        <v>30.61194431663885</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.41542725541859</v>
+        <v>15.41452584573247</v>
       </c>
       <c r="C19">
-        <v>7.27192839225085</v>
+        <v>8.73581286105358</v>
       </c>
       <c r="D19">
-        <v>5.702844681770024</v>
+        <v>7.802261371495247</v>
       </c>
       <c r="E19">
-        <v>8.118319841986752</v>
+        <v>13.07150805433448</v>
       </c>
       <c r="F19">
-        <v>27.09261577765434</v>
+        <v>39.57817357987967</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.991588678836676</v>
+        <v>10.38112824720555</v>
       </c>
       <c r="K19">
-        <v>12.86737536390951</v>
+        <v>11.41025709967097</v>
       </c>
       <c r="L19">
-        <v>6.914112486634362</v>
+        <v>10.660372757315</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.00580760401901</v>
+        <v>30.61813726739934</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.72364254910953</v>
+        <v>15.49550896449624</v>
       </c>
       <c r="C20">
-        <v>7.286430406043063</v>
+        <v>8.740513233190844</v>
       </c>
       <c r="D20">
-        <v>5.772460095838595</v>
+        <v>7.811446571974791</v>
       </c>
       <c r="E20">
-        <v>8.143667462571099</v>
+        <v>13.06701123660785</v>
       </c>
       <c r="F20">
-        <v>27.17106281571599</v>
+        <v>39.55418287707878</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.974502057763134</v>
+        <v>10.37386538132552</v>
       </c>
       <c r="K20">
-        <v>13.09732761147916</v>
+        <v>11.46958959871588</v>
       </c>
       <c r="L20">
-        <v>6.969136803491765</v>
+        <v>10.66362014748232</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.00707808996286</v>
+        <v>30.59063155868929</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.77075450712091</v>
+        <v>15.7672370302254</v>
       </c>
       <c r="C21">
-        <v>7.335797570848482</v>
+        <v>8.75644805071498</v>
       </c>
       <c r="D21">
-        <v>6.002830350559394</v>
+        <v>7.843380189280754</v>
       </c>
       <c r="E21">
-        <v>8.232802698451385</v>
+        <v>13.05378190867001</v>
       </c>
       <c r="F21">
-        <v>27.46185144299848</v>
+        <v>39.48259928984561</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.918884298829579</v>
+        <v>10.35039663876399</v>
       </c>
       <c r="K21">
-        <v>13.84408757235246</v>
+        <v>11.66842766286213</v>
       </c>
       <c r="L21">
-        <v>7.154088554122935</v>
+        <v>10.67595446047003</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.03250950389848</v>
+        <v>30.50457858143051</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.42707243462783</v>
+        <v>15.94427789621938</v>
       </c>
       <c r="C22">
-        <v>7.368550941162274</v>
+        <v>8.766964060888302</v>
       </c>
       <c r="D22">
-        <v>6.150580788685653</v>
+        <v>7.865029996599124</v>
       </c>
       <c r="E22">
-        <v>8.294030407822827</v>
+        <v>13.04653310692512</v>
       </c>
       <c r="F22">
-        <v>27.67277745756533</v>
+        <v>39.44254600982502</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.883880309127625</v>
+        <v>10.33575203679623</v>
       </c>
       <c r="K22">
-        <v>14.31298136739331</v>
+        <v>11.79780280967133</v>
       </c>
       <c r="L22">
-        <v>7.27488055218861</v>
+        <v>10.68506744734968</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.06566690433344</v>
+        <v>30.45308629831329</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.07932857925327</v>
+        <v>15.84985568064147</v>
       </c>
       <c r="C23">
-        <v>7.351024382337659</v>
+        <v>8.761342441895803</v>
       </c>
       <c r="D23">
-        <v>6.071991384202876</v>
+        <v>7.853405090310261</v>
       </c>
       <c r="E23">
-        <v>8.261079231092394</v>
+        <v>13.05027429805415</v>
       </c>
       <c r="F23">
-        <v>27.55825456214302</v>
+        <v>39.4633069655069</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.902438748683085</v>
+        <v>10.3435048124319</v>
       </c>
       <c r="K23">
-        <v>14.06446900703098</v>
+        <v>11.72881806572068</v>
       </c>
       <c r="L23">
-        <v>7.210428077011601</v>
+        <v>10.68010803968909</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.04640768573979</v>
+        <v>30.48013383520353</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70605058165808</v>
+        <v>15.49106241092084</v>
       </c>
       <c r="C24">
-        <v>7.285631632074069</v>
+        <v>8.740254565294087</v>
       </c>
       <c r="D24">
-        <v>5.768649925415362</v>
+        <v>7.810938079328689</v>
       </c>
       <c r="E24">
-        <v>8.142260590972796</v>
+        <v>13.06725110180393</v>
       </c>
       <c r="F24">
-        <v>27.16665403303983</v>
+        <v>39.55546641009427</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.97543366045992</v>
+        <v>10.37426070584053</v>
       </c>
       <c r="K24">
-        <v>13.08479721260976</v>
+        <v>11.46633275672636</v>
       </c>
       <c r="L24">
-        <v>6.966114459897954</v>
+        <v>10.66343643825322</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.00693063611626</v>
+        <v>30.59211812158565</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.21938370622182</v>
+        <v>15.10350454338566</v>
       </c>
       <c r="C25">
-        <v>7.217131656414759</v>
+        <v>8.717972166717479</v>
       </c>
       <c r="D25">
-        <v>5.430624268828819</v>
+        <v>7.7686045438898</v>
       </c>
       <c r="E25">
-        <v>8.026765491323072</v>
+        <v>13.09158393568018</v>
       </c>
       <c r="F25">
-        <v>26.82997222889799</v>
+        <v>39.68372597824289</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.059882557757002</v>
+        <v>10.4104278822533</v>
       </c>
       <c r="K25">
-        <v>11.94518467577651</v>
+        <v>11.18200601018628</v>
       </c>
       <c r="L25">
-        <v>6.703171113905322</v>
+        <v>10.65002727404123</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.0304242245374</v>
+        <v>30.73325596472768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_254/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.8196770910878</v>
+        <v>14.04690559768407</v>
       </c>
       <c r="C2">
-        <v>8.701991038463163</v>
+        <v>7.168377782088808</v>
       </c>
       <c r="D2">
-        <v>7.740546356698469</v>
+        <v>5.174032448198802</v>
       </c>
       <c r="E2">
-        <v>13.1147000458921</v>
+        <v>7.9524647322399</v>
       </c>
       <c r="F2">
-        <v>39.80291378266475</v>
+        <v>26.6510910736778</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.43965123685456</v>
+        <v>6.126929669296914</v>
       </c>
       <c r="K2">
-        <v>10.97304233228034</v>
+        <v>11.03427256079178</v>
       </c>
       <c r="L2">
-        <v>10.64414207485471</v>
+        <v>6.511180057679584</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.85463545647013</v>
+        <v>20.09919880818202</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.62931646709673</v>
+        <v>13.20158251673385</v>
       </c>
       <c r="C3">
-        <v>8.691439001280019</v>
+        <v>7.136359099891812</v>
       </c>
       <c r="D3">
-        <v>7.723530605890372</v>
+        <v>4.996333906392759</v>
       </c>
       <c r="E3">
-        <v>13.13361988409823</v>
+        <v>7.908707002465802</v>
       </c>
       <c r="F3">
-        <v>39.89908891827489</v>
+        <v>26.57036580576434</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.46108441887647</v>
+        <v>6.175389280396335</v>
       </c>
       <c r="K3">
-        <v>10.83240246286649</v>
+        <v>10.372101870296</v>
       </c>
       <c r="L3">
-        <v>10.64266630505112</v>
+        <v>6.382686048446219</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.94776686950024</v>
+        <v>20.17529708791196</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.513768673553</v>
+        <v>12.65822664461869</v>
       </c>
       <c r="C4">
-        <v>8.685101927765675</v>
+        <v>7.117196844961884</v>
       </c>
       <c r="D4">
-        <v>7.714087536435531</v>
+        <v>4.885744648768604</v>
       </c>
       <c r="E4">
-        <v>13.14684489049918</v>
+        <v>7.885052341134815</v>
       </c>
       <c r="F4">
-        <v>39.96572229615035</v>
+        <v>26.53988286018838</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.47505103561553</v>
+        <v>6.206630368830035</v>
       </c>
       <c r="K4">
-        <v>10.746781596787</v>
+        <v>9.943491640772715</v>
       </c>
       <c r="L4">
-        <v>10.64300740739907</v>
+        <v>6.304806331316734</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.01030512843756</v>
+        <v>20.2357202463739</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.46707100463819</v>
+        <v>12.43082942559668</v>
       </c>
       <c r="C5">
-        <v>8.682555940822406</v>
+        <v>7.109512435214913</v>
       </c>
       <c r="D5">
-        <v>7.710494774059507</v>
+        <v>4.840372046824225</v>
       </c>
       <c r="E5">
-        <v>13.15263905169115</v>
+        <v>7.876214058164265</v>
       </c>
       <c r="F5">
-        <v>39.99478004119068</v>
+        <v>26.53212200694015</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.48094584146439</v>
+        <v>6.219734747205789</v>
       </c>
       <c r="K5">
-        <v>10.71211283334718</v>
+        <v>9.763314464533947</v>
       </c>
       <c r="L5">
-        <v>10.64346122514592</v>
+        <v>6.273358926215683</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.03713545824397</v>
+        <v>20.26366475871485</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.45934193830342</v>
+        <v>12.39271426287837</v>
       </c>
       <c r="C6">
-        <v>8.682135402780364</v>
+        <v>7.108243937867578</v>
       </c>
       <c r="D6">
-        <v>7.709913698467336</v>
+        <v>4.83282148112486</v>
       </c>
       <c r="E6">
-        <v>13.15362563393744</v>
+        <v>7.874794642396872</v>
       </c>
       <c r="F6">
-        <v>39.99971998852507</v>
+        <v>26.53111074706801</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.48193696224501</v>
+        <v>6.221933259999197</v>
       </c>
       <c r="K6">
-        <v>10.7063706581296</v>
+        <v>9.733064100996529</v>
       </c>
       <c r="L6">
-        <v>10.64355562838779</v>
+        <v>6.268155563371164</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.04167184409202</v>
+        <v>20.26850199786476</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.51313724720199</v>
+        <v>12.65518386608956</v>
       </c>
       <c r="C7">
-        <v>8.685067443257244</v>
+        <v>7.11709270761582</v>
       </c>
       <c r="D7">
-        <v>7.714038045733394</v>
+        <v>4.885133888036366</v>
       </c>
       <c r="E7">
-        <v>13.14692139268847</v>
+        <v>7.884929910555982</v>
       </c>
       <c r="F7">
-        <v>39.96610647267243</v>
+        <v>26.53975950624401</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.47512971125002</v>
+        <v>6.206805587736251</v>
       </c>
       <c r="K7">
-        <v>10.74631309077753</v>
+        <v>9.941083994973734</v>
       </c>
       <c r="L7">
-        <v>10.64301225155665</v>
+        <v>6.30438100496775</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.01066152538208</v>
+        <v>20.23608382726522</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.75379599158112</v>
+        <v>13.76056033414428</v>
       </c>
       <c r="C8">
-        <v>8.698323681061934</v>
+        <v>7.157234049549737</v>
       </c>
       <c r="D8">
-        <v>7.73447249540577</v>
+        <v>5.113107336268963</v>
       </c>
       <c r="E8">
-        <v>13.12089013287786</v>
+        <v>7.936706520769798</v>
       </c>
       <c r="F8">
-        <v>39.83450011184441</v>
+        <v>26.61921521092182</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.44687428678329</v>
+        <v>6.143329661634379</v>
       </c>
       <c r="K8">
-        <v>10.9244206438578</v>
+        <v>10.81054095464</v>
       </c>
       <c r="L8">
-        <v>10.64337510359837</v>
+        <v>6.466684553076283</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.88563503520292</v>
+        <v>20.12251949205592</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.23395264602096</v>
+        <v>15.73070836026033</v>
       </c>
       <c r="C9">
-        <v>8.725413719841216</v>
+        <v>7.239940551576256</v>
       </c>
       <c r="D9">
-        <v>7.782389371023143</v>
+        <v>5.545804723009069</v>
       </c>
       <c r="E9">
-        <v>13.08258103744324</v>
+        <v>8.063990481296241</v>
       </c>
       <c r="F9">
-        <v>39.63667211046047</v>
+        <v>26.93233725815591</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.39784338144481</v>
+        <v>6.030677113619354</v>
       </c>
       <c r="K9">
-        <v>11.27781867224489</v>
+        <v>12.34019827309294</v>
       </c>
       <c r="L9">
-        <v>10.65392819927284</v>
+        <v>6.791571593632792</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.68299857646537</v>
+        <v>20.01415986824798</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.58858143720893</v>
+        <v>17.08830474333093</v>
       </c>
       <c r="C10">
-        <v>8.74594301090176</v>
+        <v>7.303216807475652</v>
       </c>
       <c r="D10">
-        <v>7.822197323066228</v>
+        <v>5.85190046133946</v>
       </c>
       <c r="E10">
-        <v>13.06217048981767</v>
+        <v>8.173507372021497</v>
       </c>
       <c r="F10">
-        <v>39.52817929400722</v>
+        <v>27.26598734120605</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.36567830589268</v>
+        <v>5.95516896535178</v>
       </c>
       <c r="K10">
-        <v>11.53773602245055</v>
+        <v>13.35718942950634</v>
       </c>
       <c r="L10">
-        <v>10.6676042628551</v>
+        <v>7.032428959425976</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.56012022536088</v>
+        <v>20.01219124261917</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.74965573412391</v>
+        <v>17.70454308446768</v>
       </c>
       <c r="C11">
-        <v>8.75540948033442</v>
+        <v>7.332570369814419</v>
       </c>
       <c r="D11">
-        <v>7.841265088908213</v>
+        <v>5.988062932549508</v>
       </c>
       <c r="E11">
-        <v>13.05455763580059</v>
+        <v>8.226853858492291</v>
       </c>
       <c r="F11">
-        <v>39.48684563244928</v>
+        <v>27.44180394304467</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.35187691088274</v>
+        <v>5.922410069411431</v>
       </c>
       <c r="K11">
-        <v>11.65557283967936</v>
+        <v>13.79681758331709</v>
       </c>
       <c r="L11">
-        <v>10.67509371608225</v>
+        <v>7.142106017302218</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>30.50987806890969</v>
+        <v>20.02991370393571</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.81056100720925</v>
+        <v>17.93308539497496</v>
       </c>
       <c r="C12">
-        <v>8.759011739754985</v>
+        <v>7.343769640091242</v>
       </c>
       <c r="D12">
-        <v>7.848619669007608</v>
+        <v>6.039144896490288</v>
       </c>
       <c r="E12">
-        <v>13.05191459984163</v>
+        <v>8.247564844075836</v>
       </c>
       <c r="F12">
-        <v>39.4723481451374</v>
+        <v>27.51195520735755</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.34676964745901</v>
+        <v>5.910235612247789</v>
       </c>
       <c r="K12">
-        <v>11.70009901126914</v>
+        <v>13.96000641495596</v>
       </c>
       <c r="L12">
-        <v>10.67811041067323</v>
+        <v>7.183625772588526</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.4916669984516</v>
+        <v>20.03944983551552</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.79744882310344</v>
+        <v>17.88407788295435</v>
       </c>
       <c r="C13">
-        <v>8.758235163220933</v>
+        <v>7.341353919760992</v>
       </c>
       <c r="D13">
-        <v>7.847029830575998</v>
+        <v>6.02816534571793</v>
       </c>
       <c r="E13">
-        <v>13.0524731711102</v>
+        <v>8.243081649263436</v>
       </c>
       <c r="F13">
-        <v>39.47541906554273</v>
+        <v>27.49668614687846</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.34786430101282</v>
+        <v>5.912847307273815</v>
       </c>
       <c r="K13">
-        <v>11.69051437676893</v>
+        <v>13.92500668445898</v>
       </c>
       <c r="L13">
-        <v>10.67745270820898</v>
+        <v>7.174684735366717</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>30.49555283219104</v>
+        <v>20.03726803845857</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75466855903182</v>
+        <v>17.72344153923844</v>
       </c>
       <c r="C14">
-        <v>8.755705494209323</v>
+        <v>7.333490050675848</v>
       </c>
       <c r="D14">
-        <v>7.841867491098363</v>
+        <v>5.992275282695489</v>
       </c>
       <c r="E14">
-        <v>13.05433538981734</v>
+        <v>8.228547531997206</v>
       </c>
       <c r="F14">
-        <v>39.48562976733918</v>
+        <v>27.44750306403518</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.35145435020541</v>
+        <v>5.921403834914858</v>
       </c>
       <c r="K14">
-        <v>11.65923817634425</v>
+        <v>13.81030900893661</v>
       </c>
       <c r="L14">
-        <v>10.67533829224253</v>
+        <v>7.145522278363954</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>30.50836350163537</v>
+        <v>20.03064077513424</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.72845109311726</v>
+        <v>17.62442197139067</v>
       </c>
       <c r="C15">
-        <v>8.754158254684805</v>
+        <v>7.328684167967259</v>
       </c>
       <c r="D15">
-        <v>7.838722746782634</v>
+        <v>5.97022810499986</v>
       </c>
       <c r="E15">
-        <v>13.05550725991862</v>
+        <v>8.219711433294659</v>
       </c>
       <c r="F15">
-        <v>39.49203452487178</v>
+        <v>27.41784573787104</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.35366884715005</v>
+        <v>5.926675053695128</v>
       </c>
       <c r="K15">
-        <v>11.64006696670724</v>
+        <v>13.73962573964701</v>
       </c>
       <c r="L15">
-        <v>10.67406661726975</v>
+        <v>7.127656993754902</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.51631651994669</v>
+        <v>20.02695371057444</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.5780451788362</v>
+        <v>17.04735535325664</v>
       </c>
       <c r="C16">
-        <v>8.745326851171599</v>
+        <v>7.301310086325046</v>
       </c>
       <c r="D16">
-        <v>7.820970169095691</v>
+        <v>5.842936648473198</v>
       </c>
       <c r="E16">
-        <v>13.06270159857967</v>
+        <v>8.170092259971494</v>
       </c>
       <c r="F16">
-        <v>39.53104205833136</v>
+        <v>27.25499110829205</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.36659693828429</v>
+        <v>5.95734199419387</v>
       </c>
       <c r="K16">
-        <v>11.5300237336958</v>
+        <v>13.32799729107561</v>
       </c>
       <c r="L16">
-        <v>10.66714017980735</v>
+        <v>7.025261038161166</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.56351758589214</v>
+        <v>20.01142025967909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.48567333709893</v>
+        <v>16.68470822743165</v>
       </c>
       <c r="C17">
-        <v>8.739941159232622</v>
+        <v>7.284663935721038</v>
       </c>
       <c r="D17">
-        <v>7.810322442130212</v>
+        <v>5.764030258573769</v>
       </c>
       <c r="E17">
-        <v>13.06754288780133</v>
+        <v>8.140557835960777</v>
       </c>
       <c r="F17">
-        <v>39.55702717098796</v>
+        <v>27.16132638369799</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.37474035316427</v>
+        <v>5.976563734157925</v>
       </c>
       <c r="K17">
-        <v>11.46238543053433</v>
+        <v>13.06959622591676</v>
       </c>
       <c r="L17">
-        <v>10.66321461743771</v>
+        <v>6.962451655802536</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.59392340894292</v>
+        <v>20.00676391521224</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.43252331576831</v>
+        <v>16.48235522335839</v>
       </c>
       <c r="C18">
-        <v>8.736855511680414</v>
+        <v>7.275142922914678</v>
       </c>
       <c r="D18">
-        <v>7.804288650899793</v>
+        <v>5.718357123564722</v>
       </c>
       <c r="E18">
-        <v>13.07048488790463</v>
+        <v>8.123902239246551</v>
       </c>
       <c r="F18">
-        <v>39.57272796320003</v>
+        <v>27.10970879775649</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.37950244055532</v>
+        <v>5.987769104679693</v>
       </c>
       <c r="K18">
-        <v>11.42344617205864</v>
+        <v>12.91880378053424</v>
       </c>
       <c r="L18">
-        <v>10.6610762125933</v>
+        <v>6.926337256388945</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.61194431663885</v>
+        <v>20.00582913463438</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.41452584573247</v>
+        <v>16.41542725541859</v>
       </c>
       <c r="C19">
-        <v>8.73581286105358</v>
+        <v>7.271928392251114</v>
       </c>
       <c r="D19">
-        <v>7.802261371495247</v>
+        <v>5.702844681770083</v>
       </c>
       <c r="E19">
-        <v>13.07150805433448</v>
+        <v>8.118319841986956</v>
       </c>
       <c r="F19">
-        <v>39.57817357987967</v>
+        <v>27.09261577765426</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.38112824720555</v>
+        <v>5.991588678836736</v>
       </c>
       <c r="K19">
-        <v>11.41025709967097</v>
+        <v>12.86737536390952</v>
       </c>
       <c r="L19">
-        <v>10.660372757315</v>
+        <v>6.914112486634366</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.61813726739934</v>
+        <v>20.00580760401891</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.49550896449624</v>
+        <v>16.72364254910958</v>
       </c>
       <c r="C20">
-        <v>8.740513233190844</v>
+        <v>7.286430406042809</v>
       </c>
       <c r="D20">
-        <v>7.811446571974791</v>
+        <v>5.772460095838477</v>
       </c>
       <c r="E20">
-        <v>13.06701123660785</v>
+        <v>8.14366746257099</v>
       </c>
       <c r="F20">
-        <v>39.55418287707878</v>
+        <v>27.17106281571577</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.37386538132552</v>
+        <v>5.974502057763103</v>
       </c>
       <c r="K20">
-        <v>11.46958959871588</v>
+        <v>13.09732761147919</v>
       </c>
       <c r="L20">
-        <v>10.66362014748232</v>
+        <v>6.96913680349174</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.59063155868929</v>
+        <v>20.00707808996277</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.7672370302254</v>
+        <v>17.77075450712093</v>
       </c>
       <c r="C21">
-        <v>8.75644805071498</v>
+        <v>7.33579757084861</v>
       </c>
       <c r="D21">
-        <v>7.843380189280754</v>
+        <v>6.002830350559394</v>
       </c>
       <c r="E21">
-        <v>13.05378190867001</v>
+        <v>8.232802698451332</v>
       </c>
       <c r="F21">
-        <v>39.48259928984561</v>
+        <v>27.46185144299832</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.35039663876399</v>
+        <v>5.918884298829517</v>
       </c>
       <c r="K21">
-        <v>11.66842766286213</v>
+        <v>13.84408757235251</v>
       </c>
       <c r="L21">
-        <v>10.67595446047003</v>
+        <v>7.154088554122915</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>30.50457858143051</v>
+        <v>20.03250950389834</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.94427789621938</v>
+        <v>18.42707243462789</v>
       </c>
       <c r="C22">
-        <v>8.766964060888302</v>
+        <v>7.368550941162264</v>
       </c>
       <c r="D22">
-        <v>7.865029996599124</v>
+        <v>6.150580788685618</v>
       </c>
       <c r="E22">
-        <v>13.04653310692512</v>
+        <v>8.294030407822786</v>
       </c>
       <c r="F22">
-        <v>39.44254600982502</v>
+        <v>27.67277745756508</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.33575203679623</v>
+        <v>5.883880309127594</v>
       </c>
       <c r="K22">
-        <v>11.79780280967133</v>
+        <v>14.31298136739337</v>
       </c>
       <c r="L22">
-        <v>10.68506744734968</v>
+        <v>7.274880552188543</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30.45308629831329</v>
+        <v>20.06566690433324</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.84985568064147</v>
+        <v>18.07932857925328</v>
       </c>
       <c r="C23">
-        <v>8.761342441895803</v>
+        <v>7.351024382337659</v>
       </c>
       <c r="D23">
-        <v>7.853405090310261</v>
+        <v>6.0719913842028</v>
       </c>
       <c r="E23">
-        <v>13.05027429805415</v>
+        <v>8.261079231092397</v>
       </c>
       <c r="F23">
-        <v>39.4633069655069</v>
+        <v>27.55825456214305</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.3435048124319</v>
+        <v>5.902438748683152</v>
       </c>
       <c r="K23">
-        <v>11.72881806572068</v>
+        <v>14.06446900703098</v>
       </c>
       <c r="L23">
-        <v>10.68010803968909</v>
+        <v>7.210428077011572</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.48013383520353</v>
+        <v>20.04640768573986</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.49106241092084</v>
+        <v>16.70605058165812</v>
       </c>
       <c r="C24">
-        <v>8.740254565294087</v>
+        <v>7.285631632074076</v>
       </c>
       <c r="D24">
-        <v>7.810938079328689</v>
+        <v>5.768649925415307</v>
       </c>
       <c r="E24">
-        <v>13.06725110180393</v>
+        <v>8.142260590972699</v>
       </c>
       <c r="F24">
-        <v>39.55546641009427</v>
+        <v>27.16665403303949</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.37426070584053</v>
+        <v>5.975433660459888</v>
       </c>
       <c r="K24">
-        <v>11.46633275672636</v>
+        <v>13.08479721260987</v>
       </c>
       <c r="L24">
-        <v>10.66343643825322</v>
+        <v>6.966114459897862</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.59211812158565</v>
+        <v>20.00693063611594</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.10350454338566</v>
+        <v>15.21938370622181</v>
       </c>
       <c r="C25">
-        <v>8.717972166717479</v>
+        <v>7.217131656414502</v>
       </c>
       <c r="D25">
-        <v>7.7686045438898</v>
+        <v>5.430624268828769</v>
       </c>
       <c r="E25">
-        <v>13.09158393568018</v>
+        <v>8.026765491323088</v>
       </c>
       <c r="F25">
-        <v>39.68372597824289</v>
+        <v>26.8299722288979</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.4104278822533</v>
+        <v>6.059882557757035</v>
       </c>
       <c r="K25">
-        <v>11.18200601018628</v>
+        <v>11.94518467577647</v>
       </c>
       <c r="L25">
-        <v>10.65002727404123</v>
+        <v>6.703171113905376</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.73325596472768</v>
+        <v>20.03042422453735</v>
       </c>
     </row>
   </sheetData>
